--- a/strike_rates.xlsx
+++ b/strike_rates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
   <si>
     <t>motorway</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>london</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -138,13 +141,13 @@
         <v>21.01762437313248</v>
       </c>
       <c r="D2" t="n">
-        <v>44.57694693850785</v>
+        <v>55.72118367313481</v>
       </c>
       <c r="E2" t="n">
-        <v>75.69266129751867</v>
+        <v>82.57381232456582</v>
       </c>
       <c r="F2" t="n">
-        <v>163.00329883953893</v>
+        <v>181.11477648837658</v>
       </c>
     </row>
     <row r="3">
@@ -175,7 +178,7 @@
         <v>73.30821769359079</v>
       </c>
       <c r="C4" t="n">
-        <v>145.92051718271168</v>
+        <v>160.51256890098284</v>
       </c>
       <c r="D4" t="n">
         <v>129.6120391308475</v>
@@ -184,7 +187,7 @@
         <v>68.77551501855586</v>
       </c>
       <c r="F4" t="n">
-        <v>24.74987944274155</v>
+        <v>32.999839256988736</v>
       </c>
     </row>
     <row r="5">
@@ -195,13 +198,13 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.69120527259707</v>
+        <v>166.07885348350095</v>
       </c>
       <c r="D5" t="n">
-        <v>117.26710367344823</v>
+        <v>164.1739451428275</v>
       </c>
       <c r="E5" t="n">
-        <v>126.29468057895801</v>
+        <v>144.33677780452342</v>
       </c>
       <c r="F5" t="n">
         <v>39.14075099306544</v>
@@ -215,13 +218,13 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>158.0896523765361</v>
+        <v>170.2503948670389</v>
       </c>
       <c r="D6" t="n">
         <v>94.95563151107972</v>
       </c>
       <c r="E6" t="n">
-        <v>152.49086375337083</v>
+        <v>159.75233345591232</v>
       </c>
       <c r="F6" t="n">
         <v>105.77368740806749</v>
@@ -238,13 +241,13 @@
         <v>104.1956035694353</v>
       </c>
       <c r="D7" t="n">
-        <v>102.63520514916596</v>
+        <v>123.16224617899915</v>
       </c>
       <c r="E7" t="n">
         <v>137.78751787625905</v>
       </c>
       <c r="F7" t="n">
-        <v>79.63944898195022</v>
+        <v>95.56733877834027</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +258,13 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>144.17056829721008</v>
+        <v>163.8301912468296</v>
       </c>
       <c r="D8" t="n">
         <v>95.00663367635141</v>
       </c>
       <c r="E8" t="n">
-        <v>82.53564595465166</v>
+        <v>89.81820295065035</v>
       </c>
       <c r="F8" t="n">
         <v>140.82392517306505</v>
@@ -275,13 +278,13 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.893094377519</v>
+        <v>205.31054957330377</v>
       </c>
       <c r="D9" t="n">
         <v>182.52499999364187</v>
       </c>
       <c r="E9" t="n">
-        <v>166.94633025162597</v>
+        <v>176.7667026193687</v>
       </c>
       <c r="F9" t="n">
         <v>121.2476066881162</v>
@@ -295,16 +298,36 @@
         <v>10.038513006110769</v>
       </c>
       <c r="C10" t="n">
-        <v>210.92781370261932</v>
+        <v>220.84322374846892</v>
       </c>
       <c r="D10" t="n">
         <v>35.54368097525838</v>
       </c>
       <c r="E10" t="n">
-        <v>97.08775827084527</v>
+        <v>101.43497132774878</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.33372600546942</v>
+      </c>
+      <c r="C11" t="n">
+        <v>196.86535965700887</v>
+      </c>
+      <c r="D11" t="n">
+        <v>84.38301454158001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>103.70870467347454</v>
+      </c>
+      <c r="F11" t="n">
+        <v>71.4332676328384</v>
       </c>
     </row>
   </sheetData>
@@ -343,19 +366,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.4798355326094785</v>
+        <v>2.325455836957752</v>
       </c>
       <c r="C2" t="n">
-        <v>26.561518451631642</v>
+        <v>27.725296321935087</v>
       </c>
       <c r="D2" t="n">
-        <v>12.873883312771193</v>
+        <v>13.97609934982352</v>
       </c>
       <c r="E2" t="n">
-        <v>36.532033499211884</v>
+        <v>37.81876668524844</v>
       </c>
       <c r="F2" t="n">
-        <v>43.512474888447365</v>
+        <v>48.22091433533159</v>
       </c>
     </row>
     <row r="3">
@@ -363,19 +386,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.9231864532003602</v>
+        <v>2.4537206471866666</v>
       </c>
       <c r="C3" t="n">
-        <v>47.5543855753804</v>
+        <v>50.765453411660104</v>
       </c>
       <c r="D3" t="n">
-        <v>23.962452188723756</v>
+        <v>27.146274507505236</v>
       </c>
       <c r="E3" t="n">
-        <v>39.12277054641151</v>
+        <v>41.260626860423066</v>
       </c>
       <c r="F3" t="n">
-        <v>31.40861235788002</v>
+        <v>33.04936076463494</v>
       </c>
     </row>
     <row r="4">
@@ -386,16 +409,16 @@
         <v>0.7794060853456662</v>
       </c>
       <c r="C4" t="n">
-        <v>53.31171978881385</v>
+        <v>55.07201242335016</v>
       </c>
       <c r="D4" t="n">
-        <v>29.50921301487959</v>
+        <v>32.52035720007139</v>
       </c>
       <c r="E4" t="n">
-        <v>78.12645419175738</v>
+        <v>79.88705034255753</v>
       </c>
       <c r="F4" t="n">
-        <v>46.01295653571283</v>
+        <v>49.044818012872206</v>
       </c>
     </row>
     <row r="5">
@@ -403,19 +426,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.821508697786549</v>
+        <v>3.161449504748784</v>
       </c>
       <c r="C5" t="n">
-        <v>56.022623097073705</v>
+        <v>59.78104690390186</v>
       </c>
       <c r="D5" t="n">
-        <v>19.792242973641372</v>
+        <v>22.70286694035334</v>
       </c>
       <c r="E5" t="n">
-        <v>52.45872003749419</v>
+        <v>54.85144672890719</v>
       </c>
       <c r="F5" t="n">
-        <v>29.843915040250863</v>
+        <v>31.680463658112455</v>
       </c>
     </row>
     <row r="6">
@@ -423,19 +446,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>2.1212074852488834</v>
+        <v>2.196964895436343</v>
       </c>
       <c r="C6" t="n">
-        <v>57.14245503983132</v>
+        <v>59.32029815387208</v>
       </c>
       <c r="D6" t="n">
-        <v>31.951914469648326</v>
+        <v>35.147105916613164</v>
       </c>
       <c r="E6" t="n">
-        <v>69.15664276949241</v>
+        <v>71.7027899498419</v>
       </c>
       <c r="F6" t="n">
-        <v>49.35699368908012</v>
+        <v>55.43170060465921</v>
       </c>
     </row>
     <row r="7">
@@ -443,19 +466,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>3.4740620146012033</v>
+        <v>3.629617030180362</v>
       </c>
       <c r="C7" t="n">
-        <v>60.47789078962526</v>
+        <v>63.7147356487883</v>
       </c>
       <c r="D7" t="n">
-        <v>32.77823183010198</v>
+        <v>35.63679855947134</v>
       </c>
       <c r="E7" t="n">
-        <v>86.03147881082057</v>
+        <v>88.90894890710085</v>
       </c>
       <c r="F7" t="n">
-        <v>54.957964973861834</v>
+        <v>59.14161628675097</v>
       </c>
     </row>
     <row r="8">
@@ -463,19 +486,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2.32427302779895</v>
+        <v>2.549202675650461</v>
       </c>
       <c r="C8" t="n">
-        <v>66.11635930887702</v>
+        <v>69.90677468289826</v>
       </c>
       <c r="D8" t="n">
-        <v>27.06791212066968</v>
+        <v>28.67909736594763</v>
       </c>
       <c r="E8" t="n">
-        <v>63.721769001719316</v>
+        <v>66.16672896341598</v>
       </c>
       <c r="F8" t="n">
-        <v>62.73257056809251</v>
+        <v>68.24752182682592</v>
       </c>
     </row>
     <row r="9">
@@ -483,19 +506,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>4.6017400808261595</v>
+        <v>4.837726751637758</v>
       </c>
       <c r="C9" t="n">
-        <v>69.81918948973467</v>
+        <v>72.71491624276514</v>
       </c>
       <c r="D9" t="n">
-        <v>32.51757448571915</v>
+        <v>35.39327835180316</v>
       </c>
       <c r="E9" t="n">
-        <v>88.48977671392664</v>
+        <v>90.10928214426937</v>
       </c>
       <c r="F9" t="n">
-        <v>94.99088586635432</v>
+        <v>98.91612908397227</v>
       </c>
     </row>
     <row r="10">
@@ -503,19 +526,39 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>4.195371559455118</v>
+        <v>4.585638681264896</v>
       </c>
       <c r="C10" t="n">
-        <v>81.26728700679449</v>
+        <v>84.29901999357647</v>
       </c>
       <c r="D10" t="n">
-        <v>19.107189093560013</v>
+        <v>20.599938241494385</v>
       </c>
       <c r="E10" t="n">
-        <v>68.37128877217816</v>
+        <v>70.71845346515617</v>
       </c>
       <c r="F10" t="n">
-        <v>96.50370753589215</v>
+        <v>104.16273194350264</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.103131263289352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>68.60341431095908</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.77742445442982</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.57874377540269</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52.11509476182265</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.872466169196222</v>
+        <v>7.308699253794333</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -617,13 +660,13 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>46.8377021917334</v>
+        <v>57.24608045656304</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.072967531102268</v>
+        <v>12.457088472490053</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -657,13 +700,13 @@
         <v>#N/A</v>
       </c>
       <c r="C7" t="n">
-        <v>105.66455171196638</v>
+        <v>117.40505745774043</v>
       </c>
       <c r="D7" t="n">
         <v>51.45482449525218</v>
       </c>
       <c r="E7" t="n">
-        <v>65.31309962947707</v>
+        <v>69.39516835631937</v>
       </c>
       <c r="F7" t="n">
         <v>19.75066796948426</v>
@@ -697,7 +740,7 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="n">
-        <v>156.83770713112318</v>
+        <v>172.5214778442355</v>
       </c>
       <c r="D9" t="n">
         <v>152.60295113983338</v>
@@ -717,16 +760,36 @@
         <v>#N/A</v>
       </c>
       <c r="C10" t="n">
-        <v>122.48664320525397</v>
+        <v>125.41694567427919</v>
       </c>
       <c r="D10" t="n">
         <v>101.41899272029377</v>
       </c>
       <c r="E10" t="n">
-        <v>56.929589275308224</v>
+        <v>58.115622385210486</v>
       </c>
       <c r="F10" t="n">
         <v>99.96264564099155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>108.97726680965206</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72.6643744017954</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.3686724587356</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.33018792306525</v>
       </c>
     </row>
   </sheetData>
@@ -768,16 +831,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>93.10402454929968</v>
+        <v>107.80466000445226</v>
       </c>
       <c r="D2" t="n">
-        <v>45.78630202996171</v>
+        <v>50.36493223295788</v>
       </c>
       <c r="E2" t="n">
-        <v>125.99924371373928</v>
+        <v>137.99917168647636</v>
       </c>
       <c r="F2" t="n">
-        <v>165.19786587065306</v>
+        <v>186.74541359291214</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +854,13 @@
         <v>176.61982187154848</v>
       </c>
       <c r="D3" t="n">
-        <v>73.08558698437676</v>
+        <v>109.62838047656513</v>
       </c>
       <c r="E3" t="n">
-        <v>51.6302275751091</v>
+        <v>55.93274653970153</v>
       </c>
       <c r="F3" t="n">
-        <v>68.1602127987275</v>
+        <v>90.88028373163667</v>
       </c>
     </row>
     <row r="4">
@@ -811,10 +874,10 @@
         <v>190.5836074438533</v>
       </c>
       <c r="D4" t="n">
-        <v>105.44913163287397</v>
+        <v>128.88227199573487</v>
       </c>
       <c r="E4" t="n">
-        <v>143.44791969074163</v>
+        <v>147.93066718107733</v>
       </c>
       <c r="F4" t="n">
         <v>24.706070935739177</v>
@@ -828,13 +891,13 @@
         <v>20.08330292972311</v>
       </c>
       <c r="C5" t="n">
-        <v>130.07717541122813</v>
+        <v>149.34786806474338</v>
       </c>
       <c r="D5" t="n">
-        <v>50.27464173956935</v>
+        <v>83.7910695659489</v>
       </c>
       <c r="E5" t="n">
-        <v>90.95893124308486</v>
+        <v>102.62033268450601</v>
       </c>
       <c r="F5" t="n">
         <v>44.72924316597681</v>
@@ -848,13 +911,13 @@
         <v>19.35776679045991</v>
       </c>
       <c r="C6" t="n">
-        <v>90.79558382356734</v>
+        <v>108.95470058828082</v>
       </c>
       <c r="D6" t="n">
         <v>24.154457429140386</v>
       </c>
       <c r="E6" t="n">
-        <v>216.2001791690968</v>
+        <v>260.54893387044996</v>
       </c>
       <c r="F6" t="n">
         <v>68.07122772888161</v>
@@ -868,16 +931,16 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.1813917071119</v>
+        <v>198.75982656295045</v>
       </c>
       <c r="D7" t="n">
-        <v>130.02683499385975</v>
+        <v>139.31446606484974</v>
       </c>
       <c r="E7" t="n">
-        <v>230.09901127827573</v>
+        <v>243.4380843958569</v>
       </c>
       <c r="F7" t="n">
-        <v>87.95027429810283</v>
+        <v>105.5403291577234</v>
       </c>
     </row>
     <row r="8">
@@ -885,19 +948,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>17.170248300334293</v>
       </c>
       <c r="C8" t="n">
-        <v>111.2470233168024</v>
+        <v>122.37172564848265</v>
       </c>
       <c r="D8" t="n">
-        <v>165.58723242607726</v>
+        <v>289.7776567456352</v>
       </c>
       <c r="E8" t="n">
-        <v>108.47912886607226</v>
+        <v>123.81961173602187</v>
       </c>
       <c r="F8" t="n">
-        <v>124.43613610999807</v>
+        <v>186.6542041649971</v>
       </c>
     </row>
     <row r="9">
@@ -908,13 +971,13 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>173.1030010841754</v>
+        <v>214.31800134231239</v>
       </c>
       <c r="D9" t="n">
-        <v>104.07060794278141</v>
+        <v>130.08825992847676</v>
       </c>
       <c r="E9" t="n">
-        <v>162.6323894111002</v>
+        <v>174.04518866801953</v>
       </c>
       <c r="F9" t="n">
         <v>280.54235574922313</v>
@@ -928,16 +991,36 @@
         <v>13.7158641202534</v>
       </c>
       <c r="C10" t="n">
-        <v>223.59750174729956</v>
+        <v>245.1541607059239</v>
       </c>
       <c r="D10" t="n">
-        <v>182.40176307563704</v>
+        <v>203.86079402571198</v>
       </c>
       <c r="E10" t="n">
-        <v>182.28205464825766</v>
+        <v>207.59900668273787</v>
       </c>
       <c r="F10" t="n">
         <v>437.8204226229306</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.610830578761968</v>
+      </c>
+      <c r="C11" t="n">
+        <v>205.5450661423225</v>
+      </c>
+      <c r="D11" t="n">
+        <v>105.96255079114755</v>
+      </c>
+      <c r="E11" t="n">
+        <v>157.49386827259067</v>
+      </c>
+      <c r="F11" t="n">
+        <v>120.7472408355734</v>
       </c>
     </row>
   </sheetData>
@@ -979,16 +1062,16 @@
         <v>5.775578679990742</v>
       </c>
       <c r="C2" t="n">
-        <v>8.662704032134453</v>
+        <v>9.5289744353479</v>
       </c>
       <c r="D2" t="n">
-        <v>8.563041849605899</v>
+        <v>9.066750193700363</v>
       </c>
       <c r="E2" t="n">
-        <v>23.634105117671382</v>
+        <v>24.319151642821275</v>
       </c>
       <c r="F2" t="n">
-        <v>18.488258357428737</v>
+        <v>19.910432077230947</v>
       </c>
     </row>
     <row r="3">
@@ -1008,7 +1091,7 @@
         <v>16.441498340588037</v>
       </c>
       <c r="F3" t="n">
-        <v>7.4779120151732865</v>
+        <v>9.970549353564381</v>
       </c>
     </row>
     <row r="4">
@@ -1022,13 +1105,13 @@
         <v>49.389263066592385</v>
       </c>
       <c r="D4" t="n">
-        <v>27.0780121071715</v>
+        <v>30.217491771771094</v>
       </c>
       <c r="E4" t="n">
-        <v>54.34850805865475</v>
+        <v>57.179159520043015</v>
       </c>
       <c r="F4" t="n">
-        <v>29.374631248051596</v>
+        <v>36.99027638643534</v>
       </c>
     </row>
     <row r="5">
@@ -1039,13 +1122,13 @@
         <v>2.852722082844677</v>
       </c>
       <c r="C5" t="n">
-        <v>22.17522924898711</v>
+        <v>23.903169190466624</v>
       </c>
       <c r="D5" t="n">
-        <v>16.397288142782223</v>
+        <v>17.56852301012381</v>
       </c>
       <c r="E5" t="n">
-        <v>17.91244659426659</v>
+        <v>19.19190706528563</v>
       </c>
       <c r="F5" t="n">
         <v>18.223685189366357</v>
@@ -1059,16 +1142,16 @@
         <v>2.6135635286909626</v>
       </c>
       <c r="C6" t="n">
-        <v>9.275572864697276</v>
+        <v>11.26319562141812</v>
       </c>
       <c r="D6" t="n">
-        <v>14.31100655986092</v>
+        <v>19.081342079814558</v>
       </c>
       <c r="E6" t="n">
-        <v>19.109422668783456</v>
+        <v>20.255988028910462</v>
       </c>
       <c r="F6" t="n">
-        <v>15.69674732280957</v>
+        <v>18.11163152631873</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1159,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>3.2396634526435095</v>
+        <v>3.987278095561242</v>
       </c>
       <c r="C7" t="n">
-        <v>29.15191107753962</v>
+        <v>32.133356528651625</v>
       </c>
       <c r="D7" t="n">
-        <v>15.96162910582379</v>
+        <v>18.71363412406927</v>
       </c>
       <c r="E7" t="n">
-        <v>30.889814991165803</v>
+        <v>33.156957375838516</v>
       </c>
       <c r="F7" t="n">
-        <v>22.059975861173193</v>
+        <v>24.160925943189685</v>
       </c>
     </row>
     <row r="8">
@@ -1096,16 +1179,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2.649967611584786</v>
+        <v>3.0285344132397554</v>
       </c>
       <c r="C8" t="n">
-        <v>33.436977025779676</v>
+        <v>35.82533252762108</v>
       </c>
       <c r="D8" t="n">
         <v>6.740473644513197</v>
       </c>
       <c r="E8" t="n">
-        <v>29.677357369358845</v>
+        <v>30.731882758117784</v>
       </c>
       <c r="F8" t="n">
         <v>32.87361272223419</v>
@@ -1116,19 +1199,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.7596741248330567</v>
+        <v>3.449592656041321</v>
       </c>
       <c r="C9" t="n">
-        <v>38.23395661579906</v>
+        <v>39.28146227650588</v>
       </c>
       <c r="D9" t="n">
-        <v>19.674453542254508</v>
+        <v>21.079771652415545</v>
       </c>
       <c r="E9" t="n">
-        <v>38.212686800344166</v>
+        <v>40.41726488497941</v>
       </c>
       <c r="F9" t="n">
-        <v>27.570598368685932</v>
+        <v>33.08471804242312</v>
       </c>
     </row>
     <row r="10">
@@ -1136,19 +1219,39 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>4.4320991572624955</v>
+        <v>4.986111551920307</v>
       </c>
       <c r="C10" t="n">
-        <v>67.89345235332975</v>
+        <v>72.19050629974303</v>
       </c>
       <c r="D10" t="n">
-        <v>22.73680500677653</v>
+        <v>26.234775007819074</v>
       </c>
       <c r="E10" t="n">
-        <v>42.99286894489695</v>
+        <v>45.38769718851189</v>
       </c>
       <c r="F10" t="n">
-        <v>58.8314819089169</v>
+        <v>80.89328762476073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.401964012110409</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.116254513326815</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.419529542929002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.89738363779538</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.927254463147662</v>
       </c>
     </row>
   </sheetData>
@@ -1187,19 +1290,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>6.964873640102109</v>
+        <v>13.929747280204218</v>
       </c>
       <c r="C2" t="n">
-        <v>22.44129401125196</v>
+        <v>24.16754739673288</v>
       </c>
       <c r="D2" t="n">
-        <v>14.264075483943806</v>
+        <v>20.46584743348459</v>
       </c>
       <c r="E2" t="n">
         <v>61.250926286585575</v>
       </c>
       <c r="F2" t="n">
-        <v>83.61787070025218</v>
+        <v>113.48139595034225</v>
       </c>
     </row>
     <row r="3">
@@ -1207,19 +1310,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>8.325134567371084</v>
+        <v>11.100179423161443</v>
       </c>
       <c r="C3" t="n">
-        <v>40.04727633228477</v>
+        <v>56.066186865198674</v>
       </c>
       <c r="D3" t="n">
-        <v>27.78854886270391</v>
+        <v>37.05139848360521</v>
       </c>
       <c r="E3" t="n">
-        <v>86.2815556539895</v>
+        <v>136.61246311881672</v>
       </c>
       <c r="F3" t="n">
-        <v>88.95797891843459</v>
+        <v>118.6106385579128</v>
       </c>
     </row>
     <row r="4">
@@ -1227,19 +1330,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>8.218092883026577</v>
+        <v>10.957457177368768</v>
       </c>
       <c r="C4" t="n">
-        <v>12.572001525056077</v>
+        <v>25.144003050112154</v>
       </c>
       <c r="D4" t="n">
-        <v>31.218994676091086</v>
+        <v>44.59856382298727</v>
       </c>
       <c r="E4" t="n">
-        <v>40.55657711082062</v>
+        <v>60.83486566623093</v>
       </c>
       <c r="F4" t="n">
-        <v>83.1366874080782</v>
+        <v>91.45035614888602</v>
       </c>
     </row>
     <row r="5">
@@ -1247,19 +1350,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>6.705722020163116</v>
+        <v>8.661557609377358</v>
       </c>
       <c r="C5" t="n">
-        <v>70.70278112922095</v>
+        <v>91.27086291226705</v>
       </c>
       <c r="D5" t="n">
-        <v>40.662137621014594</v>
+        <v>49.69816820346228</v>
       </c>
       <c r="E5" t="n">
-        <v>64.73841352945851</v>
+        <v>91.526722576131</v>
       </c>
       <c r="F5" t="n">
-        <v>39.63509862615807</v>
+        <v>79.27019725231614</v>
       </c>
     </row>
     <row r="6">
@@ -1267,19 +1370,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>7.464110285193782</v>
+        <v>11.01844851623844</v>
       </c>
       <c r="C6" t="n">
-        <v>31.9969877619673</v>
+        <v>39.99623470245912</v>
       </c>
       <c r="D6" t="n">
-        <v>49.47169568033073</v>
+        <v>60.88824083733014</v>
       </c>
       <c r="E6" t="n">
         <v>91.19018892013135</v>
       </c>
       <c r="F6" t="n">
-        <v>47.3233644435081</v>
+        <v>74.36528698265559</v>
       </c>
     </row>
     <row r="7">
@@ -1287,19 +1390,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>15.231612679563867</v>
+        <v>17.724058390765226</v>
       </c>
       <c r="C7" t="n">
-        <v>59.784482279339024</v>
+        <v>64.98313291232502</v>
       </c>
       <c r="D7" t="n">
-        <v>33.242246723826554</v>
+        <v>49.863370085739824</v>
       </c>
       <c r="E7" t="n">
-        <v>139.21331173702927</v>
+        <v>164.5248229619437</v>
       </c>
       <c r="F7" t="n">
-        <v>123.01352187530696</v>
+        <v>178.9287590913556</v>
       </c>
     </row>
     <row r="8">
@@ -1307,16 +1410,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>14.136161469199191</v>
+        <v>16.278004116047555</v>
       </c>
       <c r="C8" t="n">
-        <v>73.19165073508246</v>
+        <v>98.02453223448543</v>
       </c>
       <c r="D8" t="n">
-        <v>39.96878486847892</v>
+        <v>66.61464144746488</v>
       </c>
       <c r="E8" t="n">
-        <v>108.37641221244375</v>
+        <v>136.04698554328044</v>
       </c>
       <c r="F8" t="n">
         <v>52.06298645735912</v>
@@ -1327,19 +1430,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>11.323448322553011</v>
+        <v>12.352852715512377</v>
       </c>
       <c r="C9" t="n">
-        <v>53.05408643981358</v>
+        <v>64.03079397908536</v>
       </c>
       <c r="D9" t="n">
-        <v>38.409830778180336</v>
+        <v>52.37704197024591</v>
       </c>
       <c r="E9" t="n">
-        <v>83.84270579332883</v>
+        <v>102.89786620090356</v>
       </c>
       <c r="F9" t="n">
-        <v>328.8283791050735</v>
+        <v>460.35973074710296</v>
       </c>
     </row>
     <row r="10">
@@ -1347,19 +1450,39 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>13.05211639267865</v>
+        <v>15.952586702162797</v>
       </c>
       <c r="C10" t="n">
-        <v>80.71789879908597</v>
+        <v>106.14956554400347</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2500496644416</v>
+        <v>35.466719642071034</v>
       </c>
       <c r="E10" t="n">
-        <v>127.23792440839306</v>
+        <v>155.16820049804033</v>
       </c>
       <c r="F10" t="n">
-        <v>136.2964524447467</v>
+        <v>340.74113111186676</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.150095443074513</v>
+      </c>
+      <c r="C11" t="n">
+        <v>82.69028547115768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.77562187277688</v>
+      </c>
+      <c r="E11" t="n">
+        <v>120.7782978820911</v>
+      </c>
+      <c r="F11" t="n">
+        <v>119.97306409665384</v>
       </c>
     </row>
   </sheetData>

--- a/strike_rates.xlsx
+++ b/strike_rates.xlsx
@@ -141,13 +141,13 @@
         <v>21.01762437313248</v>
       </c>
       <c r="D2" t="n">
-        <v>55.72118367313481</v>
+        <v>56.95374856149535</v>
       </c>
       <c r="E2" t="n">
-        <v>82.57381232456582</v>
+        <v>81.02459001552859</v>
       </c>
       <c r="F2" t="n">
-        <v>181.11477648837658</v>
+        <v>177.56048814682762</v>
       </c>
     </row>
     <row r="3">
@@ -161,13 +161,13 @@
         <v>101.87070810866322</v>
       </c>
       <c r="D3" t="n">
-        <v>41.315743101584935</v>
+        <v>43.819831076272095</v>
       </c>
       <c r="E3" t="n">
-        <v>32.423308985993465</v>
+        <v>31.882931690975745</v>
       </c>
       <c r="F3" t="n">
-        <v>21.587068505167863</v>
+        <v>21.51619598144098</v>
       </c>
     </row>
     <row r="4">
@@ -181,13 +181,13 @@
         <v>160.51256890098284</v>
       </c>
       <c r="D4" t="n">
-        <v>129.6120391308475</v>
+        <v>130.54730357482447</v>
       </c>
       <c r="E4" t="n">
-        <v>68.77551501855586</v>
+        <v>68.55211198769408</v>
       </c>
       <c r="F4" t="n">
-        <v>32.999839256988736</v>
+        <v>32.96979515913038</v>
       </c>
     </row>
     <row r="5">
@@ -201,13 +201,13 @@
         <v>166.07885348350095</v>
       </c>
       <c r="D5" t="n">
-        <v>164.1739451428275</v>
+        <v>191.34966118174353</v>
       </c>
       <c r="E5" t="n">
-        <v>144.33677780452342</v>
+        <v>138.540108686048</v>
       </c>
       <c r="F5" t="n">
-        <v>39.14075099306544</v>
+        <v>39.08019430648377</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>170.2503948670389</v>
       </c>
       <c r="D6" t="n">
-        <v>94.95563151107972</v>
+        <v>105.1015687027457</v>
       </c>
       <c r="E6" t="n">
-        <v>159.75233345591232</v>
+        <v>140.31266307427816</v>
       </c>
       <c r="F6" t="n">
-        <v>105.77368740806749</v>
+        <v>93.1074707387981</v>
       </c>
     </row>
     <row r="7">
@@ -241,13 +241,13 @@
         <v>104.1956035694353</v>
       </c>
       <c r="D7" t="n">
-        <v>123.16224617899915</v>
+        <v>131.74444637329353</v>
       </c>
       <c r="E7" t="n">
-        <v>137.78751787625905</v>
+        <v>126.51771777988222</v>
       </c>
       <c r="F7" t="n">
-        <v>95.56733877834027</v>
+        <v>88.1969260470321</v>
       </c>
     </row>
     <row r="8">
@@ -281,13 +281,13 @@
         <v>205.31054957330377</v>
       </c>
       <c r="D9" t="n">
-        <v>182.52499999364187</v>
+        <v>184.88250691431642</v>
       </c>
       <c r="E9" t="n">
-        <v>176.7667026193687</v>
+        <v>175.6480272611745</v>
       </c>
       <c r="F9" t="n">
-        <v>121.2476066881162</v>
+        <v>120.16068836204336</v>
       </c>
     </row>
     <row r="10">
@@ -315,19 +315,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>7.33372600546942</v>
+        <v>7.423647405967694</v>
       </c>
       <c r="C11" t="n">
         <v>196.86535965700887</v>
       </c>
       <c r="D11" t="n">
-        <v>84.38301454158001</v>
+        <v>87.64518212800095</v>
       </c>
       <c r="E11" t="n">
-        <v>103.70870467347454</v>
+        <v>101.86342246833684</v>
       </c>
       <c r="F11" t="n">
-        <v>71.4332676328384</v>
+        <v>69.36053157315365</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +372,7 @@
         <v>27.725296321935087</v>
       </c>
       <c r="D2" t="n">
-        <v>13.97609934982352</v>
+        <v>14.272479573882112</v>
       </c>
       <c r="E2" t="n">
         <v>37.81876668524844</v>
@@ -392,7 +392,7 @@
         <v>50.765453411660104</v>
       </c>
       <c r="D3" t="n">
-        <v>27.146274507505236</v>
+        <v>28.25043632856859</v>
       </c>
       <c r="E3" t="n">
         <v>41.260626860423066</v>
@@ -412,7 +412,7 @@
         <v>55.07201242335016</v>
       </c>
       <c r="D4" t="n">
-        <v>32.52035720007139</v>
+        <v>32.635762818839034</v>
       </c>
       <c r="E4" t="n">
         <v>79.88705034255753</v>
@@ -426,13 +426,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>3.161449504748784</v>
+        <v>3.28683297171883</v>
       </c>
       <c r="C5" t="n">
         <v>59.78104690390186</v>
       </c>
       <c r="D5" t="n">
-        <v>22.70286694035334</v>
+        <v>25.210353006647857</v>
       </c>
       <c r="E5" t="n">
         <v>54.85144672890719</v>
@@ -452,7 +452,7 @@
         <v>59.32029815387208</v>
       </c>
       <c r="D6" t="n">
-        <v>35.147105916613164</v>
+        <v>38.682362800910454</v>
       </c>
       <c r="E6" t="n">
         <v>71.7027899498419</v>
@@ -472,7 +472,7 @@
         <v>63.7147356487883</v>
       </c>
       <c r="D7" t="n">
-        <v>35.63679855947134</v>
+        <v>37.70327389386736</v>
       </c>
       <c r="E7" t="n">
         <v>88.90894890710085</v>
@@ -506,13 +506,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>4.837726751637758</v>
+        <v>4.9869587410336065</v>
       </c>
       <c r="C9" t="n">
         <v>72.71491624276514</v>
       </c>
       <c r="D9" t="n">
-        <v>35.39327835180316</v>
+        <v>35.97311695023191</v>
       </c>
       <c r="E9" t="n">
         <v>90.10928214426937</v>
@@ -546,13 +546,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>3.103131263289352</v>
+        <v>3.1398567098696915</v>
       </c>
       <c r="C11" t="n">
         <v>68.60341431095908</v>
       </c>
       <c r="D11" t="n">
-        <v>25.77742445442982</v>
+        <v>26.636509630038464</v>
       </c>
       <c r="E11" t="n">
         <v>66.57874377540269</v>
@@ -596,20 +596,20 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>17.156314843803752</v>
+        <v>18.30198000160973</v>
       </c>
       <c r="D2" t="n">
-        <v>69.51379167472281</v>
+        <v>76.6265537507773</v>
       </c>
       <c r="E2" t="n">
-        <v>9.738372328734322</v>
+        <v>9.569283259940182</v>
       </c>
       <c r="F2" t="n">
-        <v>22.29694670184437</v>
+        <v>22.196699461663275</v>
       </c>
     </row>
     <row r="3">
@@ -620,13 +620,13 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>26.66724940703039</v>
+        <v>28.406648605025023</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>7.308699253794333</v>
+        <v>7.1895216567061615</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -640,16 +640,16 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>117.07058470880878</v>
+        <v>120.42746430917624</v>
       </c>
       <c r="D4" t="n">
-        <v>216.75036396781485</v>
+        <v>217.66360927902025</v>
       </c>
       <c r="E4" t="n">
-        <v>22.89605533442604</v>
+        <v>22.949506615993556</v>
       </c>
       <c r="F4" t="n">
-        <v>49.07531400386308</v>
+        <v>48.14194500010103</v>
       </c>
     </row>
     <row r="5">
@@ -660,13 +660,13 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>57.24608045656304</v>
+        <v>58.35613515999673</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.457088472490053</v>
+        <v>12.274429264963322</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -680,16 +680,16 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="n">
-        <v>22.69205433019988</v>
+        <v>23.72257681650383</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>9.922912045428879</v>
+        <v>9.462035104074358</v>
       </c>
       <c r="F6" t="n">
-        <v>23.300788717820136</v>
+        <v>21.72449797652173</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         <v>#N/A</v>
       </c>
       <c r="C7" t="n">
-        <v>117.40505745774043</v>
+        <v>121.31488684931901</v>
       </c>
       <c r="D7" t="n">
-        <v>51.45482449525218</v>
+        <v>55.303176954907535</v>
       </c>
       <c r="E7" t="n">
-        <v>69.39516835631937</v>
+        <v>65.86654395945914</v>
       </c>
       <c r="F7" t="n">
-        <v>19.75066796948426</v>
+        <v>18.55509572117391</v>
       </c>
     </row>
     <row r="8">
@@ -720,16 +720,16 @@
         <v>#N/A</v>
       </c>
       <c r="C8" t="n">
-        <v>49.08360615550599</v>
+        <v>52.462019797450466</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.518227009017842</v>
+        <v>12.444992225032918</v>
       </c>
       <c r="F8" t="n">
-        <v>70.05533935613278</v>
+        <v>65.39538136438547</v>
       </c>
     </row>
     <row r="9">
@@ -740,16 +740,16 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="n">
-        <v>172.5214778442355</v>
+        <v>187.33132503133058</v>
       </c>
       <c r="D9" t="n">
-        <v>152.60295113983338</v>
+        <v>158.2513549465573</v>
       </c>
       <c r="E9" t="n">
-        <v>28.83690336329759</v>
+        <v>28.43537711247289</v>
       </c>
       <c r="F9" t="n">
-        <v>62.534741833510914</v>
+        <v>58.50511431240297</v>
       </c>
     </row>
     <row r="10">
@@ -760,36 +760,36 @@
         <v>#N/A</v>
       </c>
       <c r="C10" t="n">
-        <v>125.41694567427919</v>
+        <v>128.71692186789792</v>
       </c>
       <c r="D10" t="n">
         <v>101.41899272029377</v>
       </c>
       <c r="E10" t="n">
-        <v>58.115622385210486</v>
+        <v>56.663062479559166</v>
       </c>
       <c r="F10" t="n">
-        <v>99.96264564099155</v>
+        <v>95.04831183061656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.0</v>
+      <c r="B11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C11" t="n">
-        <v>108.97726680965206</v>
+        <v>112.46701199107538</v>
       </c>
       <c r="D11" t="n">
-        <v>72.6643744017954</v>
+        <v>77.13099028223779</v>
       </c>
       <c r="E11" t="n">
-        <v>30.3686724587356</v>
+        <v>29.775611912212234</v>
       </c>
       <c r="F11" t="n">
-        <v>30.33018792306525</v>
+        <v>29.427917871791735</v>
       </c>
     </row>
   </sheetData>
@@ -834,13 +834,13 @@
         <v>107.80466000445226</v>
       </c>
       <c r="D2" t="n">
-        <v>50.36493223295788</v>
+        <v>51.68584102219372</v>
       </c>
       <c r="E2" t="n">
-        <v>137.99917168647636</v>
+        <v>136.64074925266033</v>
       </c>
       <c r="F2" t="n">
-        <v>186.74541359291214</v>
+        <v>185.92962006336887</v>
       </c>
     </row>
     <row r="3">
@@ -854,13 +854,13 @@
         <v>176.61982187154848</v>
       </c>
       <c r="D3" t="n">
-        <v>109.62838047656513</v>
+        <v>116.09609277681133</v>
       </c>
       <c r="E3" t="n">
-        <v>55.93274653970153</v>
+        <v>55.13671934533207</v>
       </c>
       <c r="F3" t="n">
-        <v>90.88028373163667</v>
+        <v>91.51763969351902</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +874,13 @@
         <v>190.5836074438533</v>
       </c>
       <c r="D4" t="n">
-        <v>128.88227199573487</v>
+        <v>129.9722597688013</v>
       </c>
       <c r="E4" t="n">
-        <v>147.93066718107733</v>
+        <v>147.40025683143548</v>
       </c>
       <c r="F4" t="n">
-        <v>24.706070935739177</v>
+        <v>24.732640748179925</v>
       </c>
     </row>
     <row r="5">
@@ -888,19 +888,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>20.08330292972311</v>
+        <v>21.263521167447266</v>
       </c>
       <c r="C5" t="n">
         <v>149.34786806474338</v>
       </c>
       <c r="D5" t="n">
-        <v>83.7910695659489</v>
+        <v>96.15755229272665</v>
       </c>
       <c r="E5" t="n">
-        <v>102.62033268450601</v>
+        <v>99.5229701770518</v>
       </c>
       <c r="F5" t="n">
-        <v>44.72924316597681</v>
+        <v>45.01599196824834</v>
       </c>
     </row>
     <row r="6">
@@ -914,13 +914,13 @@
         <v>108.95470058828082</v>
       </c>
       <c r="D6" t="n">
-        <v>24.154457429140386</v>
+        <v>30.180115248327652</v>
       </c>
       <c r="E6" t="n">
-        <v>260.54893387044996</v>
+        <v>210.54838476917377</v>
       </c>
       <c r="F6" t="n">
-        <v>68.07122772888161</v>
+        <v>61.95792415724677</v>
       </c>
     </row>
     <row r="7">
@@ -934,13 +934,13 @@
         <v>198.75982656295045</v>
       </c>
       <c r="D7" t="n">
-        <v>139.31446606484974</v>
+        <v>147.1474053907008</v>
       </c>
       <c r="E7" t="n">
-        <v>243.4380843958569</v>
+        <v>226.69012366221992</v>
       </c>
       <c r="F7" t="n">
-        <v>105.5403291577234</v>
+        <v>98.67407745934435</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         <v>214.31800134231239</v>
       </c>
       <c r="D9" t="n">
-        <v>130.08825992847676</v>
+        <v>130.75430825478745</v>
       </c>
       <c r="E9" t="n">
-        <v>174.04518866801953</v>
+        <v>173.53878422121414</v>
       </c>
       <c r="F9" t="n">
-        <v>280.54235574922313</v>
+        <v>277.5415927098232</v>
       </c>
     </row>
     <row r="10">
@@ -1008,19 +1008,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>9.610830578761968</v>
+        <v>9.732589985361503</v>
       </c>
       <c r="C11" t="n">
         <v>205.5450661423225</v>
       </c>
       <c r="D11" t="n">
-        <v>105.96255079114755</v>
+        <v>111.73317397379665</v>
       </c>
       <c r="E11" t="n">
-        <v>157.49386827259067</v>
+        <v>154.0150674880789</v>
       </c>
       <c r="F11" t="n">
-        <v>120.7472408355734</v>
+        <v>118.3559811415044</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1065,7 @@
         <v>9.5289744353479</v>
       </c>
       <c r="D2" t="n">
-        <v>9.066750193700363</v>
+        <v>9.211245997413757</v>
       </c>
       <c r="E2" t="n">
         <v>24.319151642821275</v>
@@ -1085,7 +1085,7 @@
         <v>15.616199542718785</v>
       </c>
       <c r="D3" t="n">
-        <v>5.823606939510219</v>
+        <v>6.0263858420703444</v>
       </c>
       <c r="E3" t="n">
         <v>16.441498340588037</v>
@@ -1105,7 +1105,7 @@
         <v>49.389263066592385</v>
       </c>
       <c r="D4" t="n">
-        <v>30.217491771771094</v>
+        <v>30.345800116027817</v>
       </c>
       <c r="E4" t="n">
         <v>57.179159520043015</v>
@@ -1119,13 +1119,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.852722082844677</v>
+        <v>2.971728258166682</v>
       </c>
       <c r="C5" t="n">
         <v>23.903169190466624</v>
       </c>
       <c r="D5" t="n">
-        <v>17.56852301012381</v>
+        <v>19.712026078734574</v>
       </c>
       <c r="E5" t="n">
         <v>19.19190706528563</v>
@@ -1145,7 +1145,7 @@
         <v>11.26319562141812</v>
       </c>
       <c r="D6" t="n">
-        <v>19.081342079814558</v>
+        <v>20.65125067455515</v>
       </c>
       <c r="E6" t="n">
         <v>20.255988028910462</v>
@@ -1165,7 +1165,7 @@
         <v>32.133356528651625</v>
       </c>
       <c r="D7" t="n">
-        <v>18.71363412406927</v>
+        <v>19.68881093559787</v>
       </c>
       <c r="E7" t="n">
         <v>33.156957375838516</v>
@@ -1199,13 +1199,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>3.449592656041321</v>
+        <v>3.5562000401569667</v>
       </c>
       <c r="C9" t="n">
         <v>39.28146227650588</v>
       </c>
       <c r="D9" t="n">
-        <v>21.079771652415545</v>
+        <v>21.302934671059372</v>
       </c>
       <c r="E9" t="n">
         <v>40.41726488497941</v>
@@ -1239,13 +1239,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>3.401964012110409</v>
+        <v>3.442161217668728</v>
       </c>
       <c r="C11" t="n">
         <v>45.116254513326815</v>
       </c>
       <c r="D11" t="n">
-        <v>17.419529542929002</v>
+        <v>17.931844485028325</v>
       </c>
       <c r="E11" t="n">
         <v>32.89738363779538</v>
@@ -1296,7 +1296,7 @@
         <v>24.16754739673288</v>
       </c>
       <c r="D2" t="n">
-        <v>20.46584743348459</v>
+        <v>20.619564025792503</v>
       </c>
       <c r="E2" t="n">
         <v>61.250926286585575</v>
@@ -1316,7 +1316,7 @@
         <v>56.066186865198674</v>
       </c>
       <c r="D3" t="n">
-        <v>37.05139848360521</v>
+        <v>38.0191013130369</v>
       </c>
       <c r="E3" t="n">
         <v>136.61246311881672</v>
@@ -1336,7 +1336,7 @@
         <v>25.144003050112154</v>
       </c>
       <c r="D4" t="n">
-        <v>44.59856382298727</v>
+        <v>44.64685230414012</v>
       </c>
       <c r="E4" t="n">
         <v>60.83486566623093</v>
@@ -1350,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>8.661557609377358</v>
+        <v>9.100748995532168</v>
       </c>
       <c r="C5" t="n">
         <v>91.27086291226705</v>
       </c>
       <c r="D5" t="n">
-        <v>49.69816820346228</v>
+        <v>54.92320620594521</v>
       </c>
       <c r="E5" t="n">
         <v>91.526722576131</v>
@@ -1376,7 +1376,7 @@
         <v>39.99623470245912</v>
       </c>
       <c r="D6" t="n">
-        <v>60.88824083733014</v>
+        <v>63.548444288104754</v>
       </c>
       <c r="E6" t="n">
         <v>91.19018892013135</v>
@@ -1396,7 +1396,7 @@
         <v>64.98313291232502</v>
       </c>
       <c r="D7" t="n">
-        <v>49.863370085739824</v>
+        <v>51.61128265835681</v>
       </c>
       <c r="E7" t="n">
         <v>164.5248229619437</v>
@@ -1430,13 +1430,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>12.352852715512377</v>
+        <v>12.688800415147096</v>
       </c>
       <c r="C9" t="n">
         <v>64.03079397908536</v>
       </c>
       <c r="D9" t="n">
-        <v>52.37704197024591</v>
+        <v>52.561774706872455</v>
       </c>
       <c r="E9" t="n">
         <v>102.89786620090356</v>
@@ -1470,13 +1470,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>13.150095443074513</v>
+        <v>13.298395226580213</v>
       </c>
       <c r="C11" t="n">
         <v>82.69028547115768</v>
       </c>
       <c r="D11" t="n">
-        <v>39.77562187277688</v>
+        <v>40.37510245209104</v>
       </c>
       <c r="E11" t="n">
         <v>120.7782978820911</v>
